--- a/SLAY/Assets/XGame/QuestBar/Resources/Excels/missionList.xlsx
+++ b/SLAY/Assets/XGame/QuestBar/Resources/Excels/missionList.xlsx
@@ -29,7 +29,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+  <si>
+    <t>任务ID</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>任务描述</t>
+  </si>
+  <si>
+    <t>任务类型（新手任务、日常任务、主线任务等）</t>
+  </si>
+  <si>
+    <t>前置任务列表，用英文逗号分割（前置任务全部完成之后，该任务才激活）</t>
+  </si>
+  <si>
+    <t>任务奖励物品列表</t>
+  </si>
+  <si>
+    <t>任务奖励物品数量列表</t>
+  </si>
+  <si>
+    <t>任务达成条件物品列表</t>
+  </si>
+  <si>
+    <t>任务达成条件物品数量列表</t>
+  </si>
+  <si>
+    <t>任务达成条件类型列表（捕获0、获取1、拥有2、击杀3）</t>
+  </si>
   <si>
     <t>questId</t>
   </si>
@@ -1046,24 +1076,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1076,16 +1106,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1099,96 +1129,128 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>1000</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>1000</v>
-      </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="I3" s="1">
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>1001</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1219,7 +1281,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1227,7 +1289,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>2</v>
